--- a/data/hotels_by_city/Houston/Houston_shard_604.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_604.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223155-Reviews-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Staybridge-Suites-Houston-NW-Willowbrook.h563243.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531686903243&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=66237f00-7f7e-475e-8c44-8432938581f1&amp;mctc=9&amp;exp_dp=97&amp;exp_ts=1531686904074&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,413 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r546739744-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223155</t>
+  </si>
+  <si>
+    <t>546739744</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrific stay, but limited maid service is a drawback </t>
+  </si>
+  <si>
+    <t>So this Staybridge is one of the nicer properties in Willowbrook area and the staff is extremely friendly, especially Amanda. I stayed for about a week and took advantage of the free breakfast and dinner/happy hour and the free laundry which is an exceptional benefit. 
+Room was very modern and clean. Property always seemed clean and orderly as well. Food wasn’t the highest quality, but there was plenty available. It was pretty typical for this price point. Nothing wrong with it, but nothing exceptional. 
+Staybridge has limited “Room Freshening” service on weekdays which includes making bed and exchanging dirty towels. Full maid service is weekly. On weekends you don’t get much unless you schedule it in advance. I checked in on a Friday night and was too late to schedule service for the weekend. I know this is one way Staybridge keeps costs under control, but I’d rather have daily maid service or at least daily freshening service. 
+One other drawback is the fact that building has wood frame construction. Every step you take, the wood subfloor creaks a little, and you can definitely hear footsteps from the floor above. I think there were kids above me and there was a lot of running. It ended by 9 or so, but just be aware that the floors transmit noise from other guests walking about. 
+Compared to other similar hotels in Willowbrook (I stayed at four this fall), this Staybridge is...So this Staybridge is one of the nicer properties in Willowbrook area and the staff is extremely friendly, especially Amanda. I stayed for about a week and took advantage of the free breakfast and dinner/happy hour and the free laundry which is an exceptional benefit. Room was very modern and clean. Property always seemed clean and orderly as well. Food wasn’t the highest quality, but there was plenty available. It was pretty typical for this price point. Nothing wrong with it, but nothing exceptional. Staybridge has limited “Room Freshening” service on weekdays which includes making bed and exchanging dirty towels. Full maid service is weekly. On weekends you don’t get much unless you schedule it in advance. I checked in on a Friday night and was too late to schedule service for the weekend. I know this is one way Staybridge keeps costs under control, but I’d rather have daily maid service or at least daily freshening service. One other drawback is the fact that building has wood frame construction. Every step you take, the wood subfloor creaks a little, and you can definitely hear footsteps from the floor above. I think there were kids above me and there was a lot of running. It ended by 9 or so, but just be aware that the floors transmit noise from other guests walking about. Compared to other similar hotels in Willowbrook (I stayed at four this fall), this Staybridge is a solid choice. Staff is great and it’s new and clean so its weaknesses are fairly minor trade offs. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>So this Staybridge is one of the nicer properties in Willowbrook area and the staff is extremely friendly, especially Amanda. I stayed for about a week and took advantage of the free breakfast and dinner/happy hour and the free laundry which is an exceptional benefit. 
+Room was very modern and clean. Property always seemed clean and orderly as well. Food wasn’t the highest quality, but there was plenty available. It was pretty typical for this price point. Nothing wrong with it, but nothing exceptional. 
+Staybridge has limited “Room Freshening” service on weekdays which includes making bed and exchanging dirty towels. Full maid service is weekly. On weekends you don’t get much unless you schedule it in advance. I checked in on a Friday night and was too late to schedule service for the weekend. I know this is one way Staybridge keeps costs under control, but I’d rather have daily maid service or at least daily freshening service. 
+One other drawback is the fact that building has wood frame construction. Every step you take, the wood subfloor creaks a little, and you can definitely hear footsteps from the floor above. I think there were kids above me and there was a lot of running. It ended by 9 or so, but just be aware that the floors transmit noise from other guests walking about. 
+Compared to other similar hotels in Willowbrook (I stayed at four this fall), this Staybridge is...So this Staybridge is one of the nicer properties in Willowbrook area and the staff is extremely friendly, especially Amanda. I stayed for about a week and took advantage of the free breakfast and dinner/happy hour and the free laundry which is an exceptional benefit. Room was very modern and clean. Property always seemed clean and orderly as well. Food wasn’t the highest quality, but there was plenty available. It was pretty typical for this price point. Nothing wrong with it, but nothing exceptional. Staybridge has limited “Room Freshening” service on weekdays which includes making bed and exchanging dirty towels. Full maid service is weekly. On weekends you don’t get much unless you schedule it in advance. I checked in on a Friday night and was too late to schedule service for the weekend. I know this is one way Staybridge keeps costs under control, but I’d rather have daily maid service or at least daily freshening service. One other drawback is the fact that building has wood frame construction. Every step you take, the wood subfloor creaks a little, and you can definitely hear footsteps from the floor above. I think there were kids above me and there was a lot of running. It ended by 9 or so, but just be aware that the floors transmit noise from other guests walking about. Compared to other similar hotels in Willowbrook (I stayed at four this fall), this Staybridge is a solid choice. Staff is great and it’s new and clean so its weaknesses are fairly minor trade offs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r520106037-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520106037</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Awful stinky</t>
+  </si>
+  <si>
+    <t>Hello, I tried to give management a chance and contact me after emailing them 4 times and I've only been ignored and have had no response from anyone.Very unprofessional to ignore me, I don't believe the place is being managed or they are just outright ignoring me.I was just out the shower and getting ready for bed, had to be up early at 5a.I pull the bedding back and a foul odor hit my nose and the top flat sheet is stained w/yellow markings.The sheets on the bed hadn't been changed from the previous guest.I get dressed and go downstairsI went downstairs and spoke w/Angela and showed her a picture of the bedding and she said to email it to management and gave me a card w/the email address.I am so exhausted and just ready for bed, I didn't come here to clean a hotel room.Angela gives me a fresh set of bedding and I had to make the bed myself.Also, the bathroom toilet was stained. I've emailed 4 times to 3 different email addresses and have not heard back from management or anyone at all.I stayed in room 305.Too bad because I really like staying at the Staybridge Hotels.My ratings are based on my stay for the one night.My IHG #531834679MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Houston NW Willowbrook, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Hello, I tried to give management a chance and contact me after emailing them 4 times and I've only been ignored and have had no response from anyone.Very unprofessional to ignore me, I don't believe the place is being managed or they are just outright ignoring me.I was just out the shower and getting ready for bed, had to be up early at 5a.I pull the bedding back and a foul odor hit my nose and the top flat sheet is stained w/yellow markings.The sheets on the bed hadn't been changed from the previous guest.I get dressed and go downstairsI went downstairs and spoke w/Angela and showed her a picture of the bedding and she said to email it to management and gave me a card w/the email address.I am so exhausted and just ready for bed, I didn't come here to clean a hotel room.Angela gives me a fresh set of bedding and I had to make the bed myself.Also, the bathroom toilet was stained. I've emailed 4 times to 3 different email addresses and have not heard back from management or anyone at all.I stayed in room 305.Too bad because I really like staying at the Staybridge Hotels.My ratings are based on my stay for the one night.My IHG #531834679More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r519358223-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519358223</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Rooms where very nice, clean , staff was friendly, breakfast was good and fresh check in   was fast and easy nice would Stay there  again in the future they even had snacks in room like popcorn  and coffees as usual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r513674294-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513674294</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Very good hotel</t>
+  </si>
+  <si>
+    <t>Short or long stay in my opinion it doesn't matter, cause the hotel is very good for every situation. Maybe is located a little bit far from downtown, but breakfast, rooms and amenities of the hotel are perfect. The staff is very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r498330135-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498330135</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Nice for a short stay</t>
+  </si>
+  <si>
+    <t>We would have given a five star rating, but we noticed ants in the kitchen.  Otherwise the beds were comfy and the available amenities were nice.  We did not try the breakfast, but it was available.  The hotel did also have an available laundry room for free, but we did not use.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r497300284-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497300284</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Fantastic hotel for families</t>
+  </si>
+  <si>
+    <t>This was my first time staying in a Staybridge, and I absolutely loved it!  This hotel is fairly new and is kept immaculately clean. The suites were so comfortable and spacious - we especially loved the kitchenette with a full-size refrigerator, dishwasher, microwave, and stovetop. The bed and pillows were heavenly, and even the sofa bed did not elicit complaints from my teenager. There was ample storage space in each room of the suite for all of our belongings so that we never felt cramped. They even provided a laundry basket to make bringing your clothes to the guest laundry a breeze, and the guest laundry was FREE - no need for rolls of quarters - how awesome!  The pool and hot tub area were very nice, and the teenagers loved having a basketball court. We didn't use it, but the patio area with 2 gas grills is a fantastic bonus when staying for an extended time.  The breakfast was your standard continental fare - nothing special, but good enough. On Mondays-Wednesdays, there is a social in the dining area in the evenings where a light dinner is served along with drinks. I highly recommend this hotel, and if I'm ever in this area again, I would definitely stay here!  I will also be looking for Staybridge Suites hotels whenever I travel from now on. MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first time staying in a Staybridge, and I absolutely loved it!  This hotel is fairly new and is kept immaculately clean. The suites were so comfortable and spacious - we especially loved the kitchenette with a full-size refrigerator, dishwasher, microwave, and stovetop. The bed and pillows were heavenly, and even the sofa bed did not elicit complaints from my teenager. There was ample storage space in each room of the suite for all of our belongings so that we never felt cramped. They even provided a laundry basket to make bringing your clothes to the guest laundry a breeze, and the guest laundry was FREE - no need for rolls of quarters - how awesome!  The pool and hot tub area were very nice, and the teenagers loved having a basketball court. We didn't use it, but the patio area with 2 gas grills is a fantastic bonus when staying for an extended time.  The breakfast was your standard continental fare - nothing special, but good enough. On Mondays-Wednesdays, there is a social in the dining area in the evenings where a light dinner is served along with drinks. I highly recommend this hotel, and if I'm ever in this area again, I would definitely stay here!  I will also be looking for Staybridge Suites hotels whenever I travel from now on. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r471701718-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471701718</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice clean place!  Free bfast and dinner (includes beer and wine).   Lots of wildlife around.   Had a great time while my husband was in class.   If we're ever in the area we will definitely say here!  Clean spacious rooms.  </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r432895598-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432895598</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Brand New Hotel/Comfy Room/Friendly Stuffs</t>
+  </si>
+  <si>
+    <t>I've visited this place a year ago right after their grand opening. The is a brand new place. Everything smells brand new. Nice decorated room. I had non smoking room with queen size bed. The room was in a studio setting with kitchen.It has a nice outdoor pool, BBQ place and free breakfast!!The Indian receptionist was friendly enough to get me a room viewed to the pool and also signed me up for the IHG rewards.The hotel is situated with a large area including good number of parking spaces. The area is secured as i live in this area for over 10 years now. There are at least 3-4 good branded hotels situated next to each other and feels like a vacation hotel area. I hope this review helps you to enjoy your stay at this hotel. Thank you! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I've visited this place a year ago right after their grand opening. The is a brand new place. Everything smells brand new. Nice decorated room. I had non smoking room with queen size bed. The room was in a studio setting with kitchen.It has a nice outdoor pool, BBQ place and free breakfast!!The Indian receptionist was friendly enough to get me a room viewed to the pool and also signed me up for the IHG rewards.The hotel is situated with a large area including good number of parking spaces. The area is secured as i live in this area for over 10 years now. There are at least 3-4 good branded hotels situated next to each other and feels like a vacation hotel area. I hope this review helps you to enjoy your stay at this hotel. Thank you! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r419175428-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419175428</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Lovely extended stay</t>
+  </si>
+  <si>
+    <t>We love this place! Free dinner and beer/wine/soft drinks and social hour three evenings a week plus nice daily breakfast is hard to beat. But the room with refrigerator, stove, and microwave is great too. However, the staff made us happy enough to write a review. The lady that serves dinner every night is so friendly and helpful that I feel terrible for forgetting her name. But she really makes it feel like home.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r364015846-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364015846</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Not horrible but many issues</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Staybridge with multiple colleagues while working in the Houston area. Overall, the staff was extremely friendly and we never had an issue with them taking care of us. We experienced many more negatives than positives before deciding to change hotels throughout our multiple month stay in the area.
+The hotel is located right next to the highway that's extremely busy. If your room is near that side of the hotel, you will honestly think your windows are open because of the noise. One night while relaxing in the den, we heard multiple gun shots as well. We found out later that Willow Brook was not the greatest area to be staying in.
+My room was located on the 3rd floor and the Internet was virtually useless. My phone wouldn't load anything on the wifi without automatically switching to my data plan which caused me to go over on data that month. Also, the ethernet ports did not work in the rooms. I tried each of the 4 rooms our company had and none of the rooms had working ethernet ports. I called the IT help desk and they said they would look into it but never resolved anything.
+The pool and hot tub area was an absolute disaster. The hot tub didn't work the entire month I was staying here. We continued to remind the front desk and maintenance workers but nothing was ever fixed....I recently stayed at this Staybridge with multiple colleagues while working in the Houston area. Overall, the staff was extremely friendly and we never had an issue with them taking care of us. We experienced many more negatives than positives before deciding to change hotels throughout our multiple month stay in the area.The hotel is located right next to the highway that's extremely busy. If your room is near that side of the hotel, you will honestly think your windows are open because of the noise. One night while relaxing in the den, we heard multiple gun shots as well. We found out later that Willow Brook was not the greatest area to be staying in.My room was located on the 3rd floor and the Internet was virtually useless. My phone wouldn't load anything on the wifi without automatically switching to my data plan which caused me to go over on data that month. Also, the ethernet ports did not work in the rooms. I tried each of the 4 rooms our company had and none of the rooms had working ethernet ports. I called the IT help desk and they said they would look into it but never resolved anything.The pool and hot tub area was an absolute disaster. The hot tub didn't work the entire month I was staying here. We continued to remind the front desk and maintenance workers but nothing was ever fixed. The pool and hot tub were both filthy, the hot tub was barely even warm, and the jets did not work. The first night we tried it, the maintenance guy walked out and said, "you know that doesn't work, right?". He told us that they have been waiting for a part to fix it for weeks. They would also lock the pool area with a bike chain lock at 9pm each night, even though the guide in your room stated it was open until 10pm.Overall, the rooms were renovated and nice but the doors didn't fit in the door frame leaving light coming into your room at night. Free laundry on every floor was great though.Getting my room cleaned was like pulling teeth. If you have your do not disturb sign on until 8:30am, your room will be skipped that day. They must have checked my floor first thing in the morning because I would leave for work at 8:30am, remove my do not disturb sign, and return around 6pm, to a dirty room. I once went about 9 days before they cleaned it again for me.My entire company was extremely disappointed since we had high expectations for this property from day 1. We have moved to a nicer area and switched to a Marriott property.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Ashwin P, General Manager at Staybridge Suites Houston NW Willowbrook, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Staybridge with multiple colleagues while working in the Houston area. Overall, the staff was extremely friendly and we never had an issue with them taking care of us. We experienced many more negatives than positives before deciding to change hotels throughout our multiple month stay in the area.
+The hotel is located right next to the highway that's extremely busy. If your room is near that side of the hotel, you will honestly think your windows are open because of the noise. One night while relaxing in the den, we heard multiple gun shots as well. We found out later that Willow Brook was not the greatest area to be staying in.
+My room was located on the 3rd floor and the Internet was virtually useless. My phone wouldn't load anything on the wifi without automatically switching to my data plan which caused me to go over on data that month. Also, the ethernet ports did not work in the rooms. I tried each of the 4 rooms our company had and none of the rooms had working ethernet ports. I called the IT help desk and they said they would look into it but never resolved anything.
+The pool and hot tub area was an absolute disaster. The hot tub didn't work the entire month I was staying here. We continued to remind the front desk and maintenance workers but nothing was ever fixed....I recently stayed at this Staybridge with multiple colleagues while working in the Houston area. Overall, the staff was extremely friendly and we never had an issue with them taking care of us. We experienced many more negatives than positives before deciding to change hotels throughout our multiple month stay in the area.The hotel is located right next to the highway that's extremely busy. If your room is near that side of the hotel, you will honestly think your windows are open because of the noise. One night while relaxing in the den, we heard multiple gun shots as well. We found out later that Willow Brook was not the greatest area to be staying in.My room was located on the 3rd floor and the Internet was virtually useless. My phone wouldn't load anything on the wifi without automatically switching to my data plan which caused me to go over on data that month. Also, the ethernet ports did not work in the rooms. I tried each of the 4 rooms our company had and none of the rooms had working ethernet ports. I called the IT help desk and they said they would look into it but never resolved anything.The pool and hot tub area was an absolute disaster. The hot tub didn't work the entire month I was staying here. We continued to remind the front desk and maintenance workers but nothing was ever fixed. The pool and hot tub were both filthy, the hot tub was barely even warm, and the jets did not work. The first night we tried it, the maintenance guy walked out and said, "you know that doesn't work, right?". He told us that they have been waiting for a part to fix it for weeks. They would also lock the pool area with a bike chain lock at 9pm each night, even though the guide in your room stated it was open until 10pm.Overall, the rooms were renovated and nice but the doors didn't fit in the door frame leaving light coming into your room at night. Free laundry on every floor was great though.Getting my room cleaned was like pulling teeth. If you have your do not disturb sign on until 8:30am, your room will be skipped that day. They must have checked my floor first thing in the morning because I would leave for work at 8:30am, remove my do not disturb sign, and return around 6pm, to a dirty room. I once went about 9 days before they cleaned it again for me.My entire company was extremely disappointed since we had high expectations for this property from day 1. We have moved to a nicer area and switched to a Marriott property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r355748538-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355748538</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Amazing stay with my family</t>
+  </si>
+  <si>
+    <t>Amazing customer services in this property a gentleman by the name Gary; was very knowledge by the area  and help us to find late night food tellen us where to go ; to grab  late night food , i stay during the weekend march 4 to 7 , i definitely stay again ..Thank you for the amazing stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r331631003-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331631003</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Omar for president!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar was an incredible host  definitely will be back.The Hotel was in perfect shape all the staff  were very courteous Food and bar was Great and the amenities are exceptional all in all a very enjoyable stay. The breakfast is well stocked the hotel has an inviting appearance. Location is great for entertainment, shopping and even has a Home Depot near by! </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r319662763-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319662763</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>A place to stay while looking for a house</t>
+  </si>
+  <si>
+    <t>Needed a place to stay in Houston to find a place to live more permanently. Chose this location due to the size of the room, the kitchen features, the pool and proximity to required activities. Plus, there is a washing machine and dryer.The room was very nice, but it got crowded after a few days. The breakfast every morning was top notch and their was variety from day-to-day! The fitness center was above average with enough space to be creative for an exercise enthusiast!However, the pool was closed during our stay and my children were cooped up in the room during the stay. Additionally, the business/computer area - computers were deathly slow.Very close to numerous restaurants, the Willowbrook Mall and other amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Ashwin P, Manager at Staybridge Suites Houston NW Willowbrook, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Needed a place to stay in Houston to find a place to live more permanently. Chose this location due to the size of the room, the kitchen features, the pool and proximity to required activities. Plus, there is a washing machine and dryer.The room was very nice, but it got crowded after a few days. The breakfast every morning was top notch and their was variety from day-to-day! The fitness center was above average with enough space to be creative for an exercise enthusiast!However, the pool was closed during our stay and my children were cooped up in the room during the stay. Additionally, the business/computer area - computers were deathly slow.Very close to numerous restaurants, the Willowbrook Mall and other amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r318358025-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318358025</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient </t>
+  </si>
+  <si>
+    <t>Reminds me of home. Staybridge are very comfortable and easy to adjust to when on the road. This Staybridge in Willowbrook was a great  place to kick back and relax.  The staff and breakfast was great. I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r308750401-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>308750401</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Makes you feel like your at home</t>
+  </si>
+  <si>
+    <t>Very nicely renovated property. Warm and inviting. The rooms are comfortable and amenities are plentiful. Last but not least is the outstanding guest services staff. Lori in the PM social area is great. She had wonderful snacks and burgers for us and kept the beer and wine flowing. Sandra Torres the Front Office Manager made sure everything was to our liking. Kudos to this team.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r280033400-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280033400</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>amazing 31 night stay</t>
+  </si>
+  <si>
+    <t>Husband had to stay here for work 31 nights in May 2015. He said it was one of the best hotels he has ever stayed at for work. I take care of booking his rooms, and the people at the front desk were extremely helpful. I believe Sandra is the one I spoke with who helped me with the booking process. My husband reports this hotel and its amenities (such as the manager's reception 3 nights a week and free laundry) is going to be hard to beat! Thanks for a great stay!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r275547784-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275547784</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I stayed at this property while visiting family,back in mid April and the last review was in January the guy said The hotel was clean and staff was friendly way off base. The room I was in was dark and depressing the windows don't seal so all you hear is highway noise at night. The plus for this property is they did a good job on remodeling the kitchen and they did put in new tvs. The front desk girl was nice and friendly but did not greet me as a IHG rewards member.The breakfast was bland and tasteless the lady that works the breakfast was rude and seemed like she didn't want to be there. Now I had read on a hotel site saying this place was once LA Quinta Inn and I can definitely see that. So overall this hotel did not meet stay bridge suites standards. I will not be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ashwin P, Manager at Staybridge Suites Houston NW Willowbrook, responded to this reviewResponded May 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this property while visiting family,back in mid April and the last review was in January the guy said The hotel was clean and staff was friendly way off base. The room I was in was dark and depressing the windows don't seal so all you hear is highway noise at night. The plus for this property is they did a good job on remodeling the kitchen and they did put in new tvs. The front desk girl was nice and friendly but did not greet me as a IHG rewards member.The breakfast was bland and tasteless the lady that works the breakfast was rude and seemed like she didn't want to be there. Now I had read on a hotel site saying this place was once LA Quinta Inn and I can definitely see that. So overall this hotel did not meet stay bridge suites standards. I will not be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r248482733-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248482733</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Very clean modern rooms.  Breakfast is good and staff is friendly. Accidentally booked here instead of the other Staybridge.  I was pleasantly surprised as this one is much newer and nicer than the other.  I will stay here again for sure.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r236796651-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236796651</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Great people making you feel at home!</t>
+  </si>
+  <si>
+    <t>The staff at this hotel are very friendly and attentive to your needs. I've been staying at this location for over 2 years, thru a remodeling of the hotel and I'm glad that I kept coming back. The remodeling is complete and the amenities are great. The afternoon happy hour social is really good with different foods each day plus cold drinks. The location is very convenient to the mall and many great restaurants.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
   </si>
 </sst>
 </file>
@@ -532,11 +948,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +980,1216 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>133</v>
+      </c>
+      <c r="X14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>160</v>
+      </c>
+      <c r="X18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_604.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_604.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,89 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r611049207-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223155</t>
+  </si>
+  <si>
+    <t>611049207</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Again great rooms, good eats and great service, restaurants are very close to this hotel.  This hotel is next to the main interstate so getting on the main highways is great.  HP is near by and so it is close to major stores and fast foods.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r597153207-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597153207</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>WiFi is so weak from the Hotel Room.  Breakfast doesn’t start until 6:30AM during weekdays!</t>
+  </si>
+  <si>
+    <t>There are 4 of us that stayed in 4 separate rooms at North Houston Staybridge Suites for 7days. We all need to be at work at exactly 7:00 AM, but we are always getting late to work every day, because the complimentary Breakfast doesn’t Start until 6:30 AM. Plus, The kitchen Lady don’t want to open the breakfast area early even when the food are already in Place!  So...That is one star off for them...WiFi from the room is Super Slow!  I Called the front desk 2x but the guy said that his phone is receiving good signal, but most of his time are spent behind the Front desk, the lobby and hallways where WiFi signal are strong!   We the customers are not getting good WiFi signal but he said to reboot my phone, so I did that, after rebooting...still the same thing, weak WiFi signal.  So That’s another star off...  Free dinner are good though, from Monday to Thursday, so 3stars for the free food.  Other Hotels start serving breakfast at 6AM, and their free WiFi are really good!  Hopefully the management at North Houston Staybridge Hotel can do something about those...but the guy at the front desk said there’s nothing they can do! :(MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>There are 4 of us that stayed in 4 separate rooms at North Houston Staybridge Suites for 7days. We all need to be at work at exactly 7:00 AM, but we are always getting late to work every day, because the complimentary Breakfast doesn’t Start until 6:30 AM. Plus, The kitchen Lady don’t want to open the breakfast area early even when the food are already in Place!  So...That is one star off for them...WiFi from the room is Super Slow!  I Called the front desk 2x but the guy said that his phone is receiving good signal, but most of his time are spent behind the Front desk, the lobby and hallways where WiFi signal are strong!   We the customers are not getting good WiFi signal but he said to reboot my phone, so I did that, after rebooting...still the same thing, weak WiFi signal.  So That’s another star off...  Free dinner are good though, from Monday to Thursday, so 3stars for the free food.  Other Hotels start serving breakfast at 6AM, and their free WiFi are really good!  Hopefully the management at North Houston Staybridge Hotel can do something about those...but the guy at the front desk said there’s nothing they can do! :(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r565898725-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565898725</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>If you can't try it for six months, then try it for a night. I promise you will not be disappointed.
+Before getting started on the hotel, I would just like to thank FEMA for allowing me and my family the opportunity to stay at Staybridge Suites for almost six months while our flooded house was being renovated. It is bad enough to have to be rescued at your front door by boat. It would have been a second disaster to have been relegated to just another hotel knowing your situation at home.
+Soon after Harvey hit us, hotel rooms were mostly unavailable in the Houston area. You had to be really fast even to get on a waiting list. I wasn't fast enough. 
+Having lived in NW Houston for a long time, I knew where I wanted to stay, but was Staybridge Suites even on the FEMA List? I needed some luck, and I got it!, At least temporarily. It was there, it was full and I was on a waiting list, number 36 as I recall.
+I don't really know what happened. All I know is I kept coming back and begging and, I think they got tired on seeing my face, and I got lucky one more time. A room came up, they needed to get someone to fill fast, and I was a lot quicker this time We were in! Best luck I ever had.
+Thanks...If you can't try it for six months, then try it for a night. I promise you will not be disappointed.Before getting started on the hotel, I would just like to thank FEMA for allowing me and my family the opportunity to stay at Staybridge Suites for almost six months while our flooded house was being renovated. It is bad enough to have to be rescued at your front door by boat. It would have been a second disaster to have been relegated to just another hotel knowing your situation at home.Soon after Harvey hit us, hotel rooms were mostly unavailable in the Houston area. You had to be really fast even to get on a waiting list. I wasn't fast enough. Having lived in NW Houston for a long time, I knew where I wanted to stay, but was Staybridge Suites even on the FEMA List? I needed some luck, and I got it!, At least temporarily. It was there, it was full and I was on a waiting list, number 36 as I recall.I don't really know what happened. All I know is I kept coming back and begging and, I think they got tired on seeing my face, and I got lucky one more time. A room came up, they needed to get someone to fill fast, and I was a lot quicker this time We were in! Best luck I ever had.Thanks to Angel, Amanda, Crystal, David and Angela for making us feel at home in their home. What a great front desk crew and we will miss them all. Yes, Staybridge has all the amenities you will ever need, but the people make it special. The cleaning crew, or I should say housekeeping army of hardworking and singing ladies, spoiled us on a daily basis. The spaces make you feel at home, and they are always clean. The food both morning and evening was exceptional and our every need was addressed quickly and successfully.You never want to be forced out of your home for any period of time, but as a former traveling businessman, I have stayed in hotels all over the world. Forget the stars, just give me Staybridge Suites on Tomball parkway in Houston. Thanks FEMA, Thanks Staybridge. I will always remember your kindness and hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>If you can't try it for six months, then try it for a night. I promise you will not be disappointed.
+Before getting started on the hotel, I would just like to thank FEMA for allowing me and my family the opportunity to stay at Staybridge Suites for almost six months while our flooded house was being renovated. It is bad enough to have to be rescued at your front door by boat. It would have been a second disaster to have been relegated to just another hotel knowing your situation at home.
+Soon after Harvey hit us, hotel rooms were mostly unavailable in the Houston area. You had to be really fast even to get on a waiting list. I wasn't fast enough. 
+Having lived in NW Houston for a long time, I knew where I wanted to stay, but was Staybridge Suites even on the FEMA List? I needed some luck, and I got it!, At least temporarily. It was there, it was full and I was on a waiting list, number 36 as I recall.
+I don't really know what happened. All I know is I kept coming back and begging and, I think they got tired on seeing my face, and I got lucky one more time. A room came up, they needed to get someone to fill fast, and I was a lot quicker this time We were in! Best luck I ever had.
+Thanks...If you can't try it for six months, then try it for a night. I promise you will not be disappointed.Before getting started on the hotel, I would just like to thank FEMA for allowing me and my family the opportunity to stay at Staybridge Suites for almost six months while our flooded house was being renovated. It is bad enough to have to be rescued at your front door by boat. It would have been a second disaster to have been relegated to just another hotel knowing your situation at home.Soon after Harvey hit us, hotel rooms were mostly unavailable in the Houston area. You had to be really fast even to get on a waiting list. I wasn't fast enough. Having lived in NW Houston for a long time, I knew where I wanted to stay, but was Staybridge Suites even on the FEMA List? I needed some luck, and I got it!, At least temporarily. It was there, it was full and I was on a waiting list, number 36 as I recall.I don't really know what happened. All I know is I kept coming back and begging and, I think they got tired on seeing my face, and I got lucky one more time. A room came up, they needed to get someone to fill fast, and I was a lot quicker this time We were in! Best luck I ever had.Thanks to Angel, Amanda, Crystal, David and Angela for making us feel at home in their home. What a great front desk crew and we will miss them all. Yes, Staybridge has all the amenities you will ever need, but the people make it special. The cleaning crew, or I should say housekeeping army of hardworking and singing ladies, spoiled us on a daily basis. The spaces make you feel at home, and they are always clean. The food both morning and evening was exceptional and our every need was addressed quickly and successfully.You never want to be forced out of your home for any period of time, but as a former traveling businessman, I have stayed in hotels all over the world. Forget the stars, just give me Staybridge Suites on Tomball parkway in Houston. Thanks FEMA, Thanks Staybridge. I will always remember your kindness and hospitality.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r546739744-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223155</t>
   </si>
   <si>
     <t>546739744</t>
@@ -181,9 +254,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>So this Staybridge is one of the nicer properties in Willowbrook area and the staff is extremely friendly, especially Amanda. I stayed for about a week and took advantage of the free breakfast and dinner/happy hour and the free laundry which is an exceptional benefit. 
 Room was very modern and clean. Property always seemed clean and orderly as well. Food wasn’t the highest quality, but there was plenty available. It was pretty typical for this price point. Nothing wrong with it, but nothing exceptional. 
 Staybridge has limited “Room Freshening” service on weekdays which includes making bed and exchanging dirty towels. Full maid service is weekly. On weekends you don’t get much unless you schedule it in advance. I checked in on a Friday night and was too late to schedule service for the weekend. I know this is one way Staybridge keeps costs under control, but I’d rather have daily maid service or at least daily freshening service. 
@@ -236,15 +306,45 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r514343675-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514343675</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel</t>
+  </si>
+  <si>
+    <t>I have stayed in a lot of motels/hotels but this one is by far the best one yet. The prices were reasonable and the room was nothing like what I was expecting. It has a small kitchen and they supple the cooking utensils, plates and glasses. Then you have a living room with a love-seat and 2 ottomans as well as a TV. The bed was very comfortable with plenty of pillows. It also has a]] free  laundry facilities. All the comforts of home is about all I can say. Stay here and you won't regret it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r513999633-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513999633</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Stay in Houston </t>
+  </si>
+  <si>
+    <t>If I were able to give this place 100 stars then I would, because 5 is not enough to rate this Staybridge Suites. It a very clean and organize place. The staff is very helpful and thoughtful and really care about their residence. Krystal, Angela, Angel and the other young lady are the greatest. Best customer service I never encountered in their line of work. The breakfast was hot and great self service, also on Monday-Wednesday from 5:30-7:30 they have self service hot dinner for their guess. You can find the meal of the day posted on the monthly calendar in your room. So I 110% recommand that if you are coming to Houston or simply just need a home away from home. Please come see this amazing team.MoreShow less</t>
+  </si>
+  <si>
+    <t>If I were able to give this place 100 stars then I would, because 5 is not enough to rate this Staybridge Suites. It a very clean and organize place. The staff is very helpful and thoughtful and really care about their residence. Krystal, Angela, Angel and the other young lady are the greatest. Best customer service I never encountered in their line of work. The breakfast was hot and great self service, also on Monday-Wednesday from 5:30-7:30 they have self service hot dinner for their guess. You can find the meal of the day posted on the monthly calendar in your room. So I 110% recommand that if you are coming to Houston or simply just need a home away from home. Please come see this amazing team.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r513674294-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
     <t>513674294</t>
   </si>
   <si>
-    <t>08/16/2017</t>
-  </si>
-  <si>
     <t>Very good hotel</t>
   </si>
   <si>
@@ -269,9 +369,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r497300284-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -290,6 +387,42 @@
     <t>This was my first time staying in a Staybridge, and I absolutely loved it!  This hotel is fairly new and is kept immaculately clean. The suites were so comfortable and spacious - we especially loved the kitchenette with a full-size refrigerator, dishwasher, microwave, and stovetop. The bed and pillows were heavenly, and even the sofa bed did not elicit complaints from my teenager. There was ample storage space in each room of the suite for all of our belongings so that we never felt cramped. They even provided a laundry basket to make bringing your clothes to the guest laundry a breeze, and the guest laundry was FREE - no need for rolls of quarters - how awesome!  The pool and hot tub area were very nice, and the teenagers loved having a basketball court. We didn't use it, but the patio area with 2 gas grills is a fantastic bonus when staying for an extended time.  The breakfast was your standard continental fare - nothing special, but good enough. On Mondays-Wednesdays, there is a social in the dining area in the evenings where a light dinner is served along with drinks. I highly recommend this hotel, and if I'm ever in this area again, I would definitely stay here!  I will also be looking for Staybridge Suites hotels whenever I travel from now on. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r488866349-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488866349</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Very clean with helpful staff and pretty good breakfast.  no weekend maid service</t>
+  </si>
+  <si>
+    <t>The rate for my weekend stay was $92.99 per night.  This was for a group of soccer players.  The rooms are very clean and the ac is as cold as you want it.  My bed was very comfortable.  Nice little kitchenette.  easy access to and from expressway.  Good if you are in this part of Houston.  A little far for art museum district or downtown Houston.  Had to take dirty towels to front desk for exchange.  Breakfast ladies were extremely good at what they do and really did an incredible job with our breakfast buffet.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r481444413-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481444413</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>New Hotel Far from Town</t>
+  </si>
+  <si>
+    <t>The hotel is new and very well maintained. The staff was extremely help and friendly. The main reason for the average rating was two parts. 1. The Road noise is pretty bad. The highway is within a short throw of the front door of the hotel. Some people may not have a problem with this, and normally it don't, but I did eventually breakdown and use the ear plugs provided in the toiletries kit. 2. The location. This is not a problem if you are working on the this end of town, but if you think that you can commute into the city, I would consider something else. The traffic is bad everywhere, but from this end into town is really bad.Overall not bad the rooms was new, but had averages finishes but was fine for the cost of the room. Highlights were the staff and the condition of the hotel. Special shoutout to Angela who went above and beyond to accommodate a change to my reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is new and very well maintained. The staff was extremely help and friendly. The main reason for the average rating was two parts. 1. The Road noise is pretty bad. The highway is within a short throw of the front door of the hotel. Some people may not have a problem with this, and normally it don't, but I did eventually breakdown and use the ear plugs provided in the toiletries kit. 2. The location. This is not a problem if you are working on the this end of town, but if you think that you can commute into the city, I would consider something else. The traffic is bad everywhere, but from this end into town is really bad.Overall not bad the rooms was new, but had averages finishes but was fine for the cost of the room. Highlights were the staff and the condition of the hotel. Special shoutout to Angela who went above and beyond to accommodate a change to my reservation.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r471701718-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -345,6 +478,45 @@
   </si>
   <si>
     <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r391197050-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391197050</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WE LOVE IT😀.  </t>
+  </si>
+  <si>
+    <t>We come to Houston to visit our son and grandchildren from Dallas and have stayed at quit a few hotels.  This is by far the best.  The updates of stainless steel appliances, quartz counter tops, and tasteful hardware around the Space made it have a very home like and modern feel.  The STAFF. What can I say about those wonderful ladies.   Sandra and Chanel were wonderful.   Chanel greeted us with a smile and explained everything to us and Sunday when we ran into extenuating circumstances,  Sandra made sure we were taken care of with no problems.   Thank you ladies so much.  Y'all are an asset to the company.  The breakfast was amazing - and yes, we did have the same thing each day . Like I read in another review, but we are staying away from home and still have to eat what we are fed.... Or NOT.  But the fresh fruit, sliced, cheese, yogurt, cereal,  wow.  I couldn't complain.  And I didn't get the kitchen lady's name, but she was a blessing as well.  SO WE WILL BE BACK IN THE NEXT COUPLE MONTHS AND WILL BE TELLING FAMILY AND FRIENDS- thanks again Chanel, my grandson was looking for before he left.   And Sandra, you are truly a blessing.  The Wrights. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We come to Houston to visit our son and grandchildren from Dallas and have stayed at quit a few hotels.  This is by far the best.  The updates of stainless steel appliances, quartz counter tops, and tasteful hardware around the Space made it have a very home like and modern feel.  The STAFF. What can I say about those wonderful ladies.   Sandra and Chanel were wonderful.   Chanel greeted us with a smile and explained everything to us and Sunday when we ran into extenuating circumstances,  Sandra made sure we were taken care of with no problems.   Thank you ladies so much.  Y'all are an asset to the company.  The breakfast was amazing - and yes, we did have the same thing each day . Like I read in another review, but we are staying away from home and still have to eat what we are fed.... Or NOT.  But the fresh fruit, sliced, cheese, yogurt, cereal,  wow.  I couldn't complain.  And I didn't get the kitchen lady's name, but she was a blessing as well.  SO WE WILL BE BACK IN THE NEXT COUPLE MONTHS AND WILL BE TELLING FAMILY AND FRIENDS- thanks again Chanel, my grandson was looking for before he left.   And Sandra, you are truly a blessing.  The Wrights. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r382263957-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382263957</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Nice stay in a great hotel in Houston</t>
+  </si>
+  <si>
+    <t>First time trying out a Staybridge Suites and it was a winner. The place accepts pets so that was great. The suite was clean, well appointed and comfortable. The front desk person was warm, informative and friendly. They have a gathering with food on Mondays through Wednesdays so our entire stay was covered dinner wise. The food was good, hot and tasty. The breakfast was good, they had a breakfast pizza which was different. All in all I would stay here again. What is not to like?</t>
+  </si>
+  <si>
+    <t>June 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r364015846-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
@@ -413,6 +585,42 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r322973681-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322973681</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>a home like experience with a few issues</t>
+  </si>
+  <si>
+    <t>we were attending an even in houston from 10 oct 2015 till 22 oct 2015, out of the many hotels suggested to us we choose stay bridge suites and it was a great decision, the rooms, facilities ,atmosphere all contributed to a relaxing stay.breakfast was quite good, but i wish they had changed the menu, we had the same menu for all of our stay: 16 days.Also since we had an important day on the 22 of october, we requested the staff to serve us breakfast at 5 am, which was flatly refused, our community had booked the majority of the rooms for this period, the whole hotel was fully booked, so i think it would have been a small matter to arrange early breakfast for us, you are getting this much business from us so our small requests should have been catered to.( we had around 20000 people attending this event and i asked a few of my friends staying at other hotels, they told us early breakfast on 22 oct 2015 was given with no fuss at all )another small issue was the attitude of the managing lady, a few remarks which she made were completely not acceptable.anyways these were minor issues.we enjoyed our trip and facilities were good, if not for the above mentioned issues would have given it 5 statrsMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>we were attending an even in houston from 10 oct 2015 till 22 oct 2015, out of the many hotels suggested to us we choose stay bridge suites and it was a great decision, the rooms, facilities ,atmosphere all contributed to a relaxing stay.breakfast was quite good, but i wish they had changed the menu, we had the same menu for all of our stay: 16 days.Also since we had an important day on the 22 of october, we requested the staff to serve us breakfast at 5 am, which was flatly refused, our community had booked the majority of the rooms for this period, the whole hotel was fully booked, so i think it would have been a small matter to arrange early breakfast for us, you are getting this much business from us so our small requests should have been catered to.( we had around 20000 people attending this event and i asked a few of my friends staying at other hotels, they told us early breakfast on 22 oct 2015 was given with no fuss at all )another small issue was the attitude of the managing lady, a few remarks which she made were completely not acceptable.anyways these were minor issues.we enjoyed our trip and facilities were good, if not for the above mentioned issues would have given it 5 statrsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r320772822-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320772822</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>slice of country in big city</t>
+  </si>
+  <si>
+    <t>loved the room....quite large....breakfast was nice...the usual extended hot breakfast...if you need a place with a kitchen, then you will be happy with this location.....we stayed because it was close to the concert venue (Sam Houston Horse Racing Park.....parking lot is a little small but as long as it is the weekend the business next door has plenty of parking....loved the popcorn in the afternoon but would have liked a little something after our return from the concert....10ish that evening....</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r319662763-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -473,6 +681,51 @@
     <t>Very nicely renovated property. Warm and inviting. The rooms are comfortable and amenities are plentiful. Last but not least is the outstanding guest services staff. Lori in the PM social area is great. She had wonderful snacks and burgers for us and kept the beer and wine flowing. Sandra Torres the Front Office Manager made sure everything was to our liking. Kudos to this team.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r301617354-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301617354</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>I woke up on Tue to find a very large spider on my room wall. I went to the front desk and was told that nobody was here to be able to handle that. They would be here later and she would sent tem in. I went ahead to work and when I got back housekeeping had cleaned the room. The spider was still in my room! I captured the HUGE SPIDER and in the morning I took it to the front desk. I said remember that spider I complained about? The woman said "oh we could not go into your room because you had a do not disturb sign up, even the manager couldn't." I said "no I did not, I couldn't even find it and if that was the case why did housekeeping come in?" I said anyway here is your spider! I do not appreciate that I was lied too and accused of having a sign up that clearly I did not being that housekeeping seemed to come into the room. I do not understand when a customer complains about something, like a spider, why would you not reassure the customer it would be taken care of. Instead you say well nobody is here to handle that so when they get here you will let them know. That does not sound as if you are even concerned about it and I knew then it was not going...I woke up on Tue to find a very large spider on my room wall. I went to the front desk and was told that nobody was here to be able to handle that. They would be here later and she would sent tem in. I went ahead to work and when I got back housekeeping had cleaned the room. The spider was still in my room! I captured the HUGE SPIDER and in the morning I took it to the front desk. I said remember that spider I complained about? The woman said "oh we could not go into your room because you had a do not disturb sign up, even the manager couldn't." I said "no I did not, I couldn't even find it and if that was the case why did housekeeping come in?" I said anyway here is your spider! I do not appreciate that I was lied too and accused of having a sign up that clearly I did not being that housekeeping seemed to come into the room. I do not understand when a customer complains about something, like a spider, why would you not reassure the customer it would be taken care of. Instead you say well nobody is here to handle that so when they get here you will let them know. That does not sound as if you are even concerned about it and I knew then it was not going to be handled.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashwin P, Manager at Staybridge Suites Houston NW Willowbrook, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>I woke up on Tue to find a very large spider on my room wall. I went to the front desk and was told that nobody was here to be able to handle that. They would be here later and she would sent tem in. I went ahead to work and when I got back housekeeping had cleaned the room. The spider was still in my room! I captured the HUGE SPIDER and in the morning I took it to the front desk. I said remember that spider I complained about? The woman said "oh we could not go into your room because you had a do not disturb sign up, even the manager couldn't." I said "no I did not, I couldn't even find it and if that was the case why did housekeeping come in?" I said anyway here is your spider! I do not appreciate that I was lied too and accused of having a sign up that clearly I did not being that housekeeping seemed to come into the room. I do not understand when a customer complains about something, like a spider, why would you not reassure the customer it would be taken care of. Instead you say well nobody is here to handle that so when they get here you will let them know. That does not sound as if you are even concerned about it and I knew then it was not going...I woke up on Tue to find a very large spider on my room wall. I went to the front desk and was told that nobody was here to be able to handle that. They would be here later and she would sent tem in. I went ahead to work and when I got back housekeeping had cleaned the room. The spider was still in my room! I captured the HUGE SPIDER and in the morning I took it to the front desk. I said remember that spider I complained about? The woman said "oh we could not go into your room because you had a do not disturb sign up, even the manager couldn't." I said "no I did not, I couldn't even find it and if that was the case why did housekeeping come in?" I said anyway here is your spider! I do not appreciate that I was lied too and accused of having a sign up that clearly I did not being that housekeeping seemed to come into the room. I do not understand when a customer complains about something, like a spider, why would you not reassure the customer it would be taken care of. Instead you say well nobody is here to handle that so when they get here you will let them know. That does not sound as if you are even concerned about it and I knew then it was not going to be handled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r294284563-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294284563</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Lovely renovated property</t>
+  </si>
+  <si>
+    <t>This is the first newly renovated Staybridge property I have seen. What a treat!  The kitchens are ultra modern.  The TVs have amazing projection.  The surroundings were quiet and pleasant.  This is in a great area surrounded by a plentitude of restaurants and malls. I was also very impressed with the treatment as an IHG Platinum member. I was upgraded weeks in advance so I could look forward to a large suite. I selected "points" as a welcome gift and they were deposited in my account by the time I got upstairs--this never happens anywhere!  This hotel was definitely a great part of my two month trip.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r280033400-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -530,15 +783,48 @@
     <t>01/09/2015</t>
   </si>
   <si>
-    <t>Great Hotel</t>
-  </si>
-  <si>
     <t>Very clean modern rooms.  Breakfast is good and staff is friendly. Accidentally booked here instead of the other Staybridge.  I was pleasantly surprised as this one is much newer and nicer than the other.  I will stay here again for sure.</t>
   </si>
   <si>
     <t>November 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r244269863-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244269863</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>Excellent long term stay!</t>
+  </si>
+  <si>
+    <t>Stayed here 47 nights right after they first opened, sept 2014.  Clean nice large room with state of art kitchen appliances.   Free breakfast buffet with great tasting foods with a variety that changes daily.  Free evening social meal during week was great tasting with good beer and wine choices too.  The staff was kind and helpful and always courteous.  Sandra Torres and Ashwin Patel went out of their way to be helpful and fix problems.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r237069440-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237069440</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>This place is very nice!!! The staff was amazing and caring of all my family needs. The evening social is a great way to unwind after a stressful day at the office. I cannot say enough about this hotel. Great job guys, keep up the good work.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223155-r236796651-Staybridge_Suites_Houston_NW_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -552,9 +838,6 @@
   </si>
   <si>
     <t>The staff at this hotel are very friendly and attentive to your needs. I've been staying at this location for over 2 years, thru a remodeling of the hotel and I'm glad that I kept coming back. The remodeling is complete and the amenities are great. The afternoon happy hour social is really good with different foods each day plus cold drinks. The location is very convenient to the mall and many great restaurants.</t>
-  </si>
-  <si>
-    <t>September 2014</t>
   </si>
 </sst>
 </file>
@@ -1089,14 +1372,10 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1109,7 +1388,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1125,7 +1404,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1134,49 +1413,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1192,7 +1461,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1201,39 +1470,45 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1249,7 +1524,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1258,38 +1533,32 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>60</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1333,27 +1602,37 @@
         <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1648,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1378,25 +1657,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
         <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1410,7 +1689,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1426,7 +1705,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1435,39 +1714,45 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1483,7 +1768,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1492,25 +1777,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1552,36 +1837,42 @@
         <v>102</v>
       </c>
       <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
         <v>103</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>104</v>
       </c>
-      <c r="L10" t="s">
-        <v>105</v>
-      </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1597,7 +1888,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1606,25 +1897,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
         <v>108</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>109</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>110</v>
       </c>
-      <c r="L11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>112</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1635,14 +1926,10 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>113</v>
-      </c>
-      <c r="X11" t="s">
-        <v>114</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1658,7 +1945,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1667,45 +1954,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1721,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1730,39 +2011,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>126</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -1778,7 +2063,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1787,49 +2072,45 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" t="n">
+        <v>58</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>3</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>133</v>
-      </c>
-      <c r="X14" t="s">
-        <v>134</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1845,7 +2126,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1854,25 +2135,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1886,7 +2167,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -1902,7 +2183,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1911,45 +2192,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -1965,7 +2240,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1974,25 +2249,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2006,7 +2281,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2022,7 +2297,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2031,25 +2306,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2060,14 +2335,10 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>160</v>
-      </c>
-      <c r="X18" t="s">
-        <v>161</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
@@ -2083,7 +2354,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2092,43 +2363,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2411,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2153,43 +2420,958 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>167</v>
+      </c>
+      <c r="X20" t="s">
+        <v>168</v>
+      </c>
       <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
         <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>199</v>
+      </c>
+      <c r="X25" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>198</v>
+      </c>
+      <c r="O28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>218</v>
+      </c>
+      <c r="X28" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" t="s">
+        <v>227</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" t="s">
+        <v>240</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>241</v>
+      </c>
+      <c r="X31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>248</v>
+      </c>
+      <c r="O32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40564</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>262</v>
+      </c>
+      <c r="J35" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35" t="s">
+        <v>264</v>
+      </c>
+      <c r="L35" t="s">
+        <v>265</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
